--- a/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Jogo</t>
   </si>
@@ -50,18 +50,21 @@
     <t>Saldo Cartola</t>
   </si>
   <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
     <t>Posição</t>
   </si>
   <si>
     <t>Jogo A</t>
   </si>
   <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
     <t>Gremiomaniasm</t>
   </si>
   <si>
-    <t>Gig@ntte</t>
-  </si>
-  <si>
     <t>Jogo B</t>
   </si>
   <si>
@@ -110,10 +113,10 @@
     <t>Jogo G</t>
   </si>
   <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
     <t>FC Los Castilho</t>
-  </si>
-  <si>
-    <t>Tabajara de Inhaua FC2</t>
   </si>
   <si>
     <t>Jogo H</t>
@@ -480,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,45 +520,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>116.91015625</v>
+      </c>
+      <c r="H2">
+        <v>67.91015625</v>
+      </c>
+      <c r="I2">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <v>161.3701171875</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>138.599609375</v>
-      </c>
-      <c r="H2">
-        <v>88.919921875</v>
-      </c>
-      <c r="I2">
-        <v>49.6796875</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -567,18 +576,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>88.919921875</v>
+        <v>67.91015625</v>
       </c>
       <c r="H3">
-        <v>138.599609375</v>
+        <v>116.91015625</v>
       </c>
       <c r="I3">
-        <v>-49.6796875</v>
+        <v>-49</v>
       </c>
       <c r="J3">
+        <v>137.2099609375</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -589,13 +601,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,45 +638,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>114.759765625</v>
+      </c>
+      <c r="H2">
+        <v>105.91015625</v>
+      </c>
+      <c r="I2">
+        <v>8.849609375</v>
+      </c>
+      <c r="J2">
+        <v>185.9697265625</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>142.419921875</v>
-      </c>
-      <c r="H2">
-        <v>133.2001953125</v>
-      </c>
-      <c r="I2">
-        <v>9.2197265625</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -676,18 +694,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>133.2001953125</v>
+        <v>105.91015625</v>
       </c>
       <c r="H3">
-        <v>142.419921875</v>
+        <v>114.759765625</v>
       </c>
       <c r="I3">
-        <v>-9.2197265625</v>
+        <v>-8.849609375</v>
       </c>
       <c r="J3">
+        <v>172.51025390625</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -698,13 +719,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,45 +756,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>121.009765625</v>
+      </c>
+      <c r="H2">
+        <v>79.41015625</v>
+      </c>
+      <c r="I2">
+        <v>41.599609375</v>
+      </c>
+      <c r="J2">
+        <v>175.099853515625</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>108.18017578125</v>
-      </c>
-      <c r="H2">
-        <v>100.2001953125</v>
-      </c>
-      <c r="I2">
-        <v>7.97998046875</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -785,18 +812,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>100.2001953125</v>
+        <v>79.41015625</v>
       </c>
       <c r="H3">
-        <v>108.18017578125</v>
+        <v>121.009765625</v>
       </c>
       <c r="I3">
-        <v>-7.97998046875</v>
+        <v>-41.599609375</v>
       </c>
       <c r="J3">
+        <v>129.51025390625</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -807,13 +837,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,45 +874,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>133.0498046875</v>
+      </c>
+      <c r="H2">
+        <v>108.22021484375</v>
+      </c>
+      <c r="I2">
+        <v>24.82958984375</v>
+      </c>
+      <c r="J2">
+        <v>198.90966796875</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>131.7197265625</v>
-      </c>
-      <c r="H2">
-        <v>81.47998046875</v>
-      </c>
-      <c r="I2">
-        <v>50.23974609375</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -894,18 +930,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>81.47998046875</v>
+        <v>108.22021484375</v>
       </c>
       <c r="H3">
-        <v>131.7197265625</v>
+        <v>133.0498046875</v>
       </c>
       <c r="I3">
-        <v>-50.23974609375</v>
+        <v>-24.82958984375</v>
       </c>
       <c r="J3">
+        <v>148.960205078125</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -916,13 +955,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,45 +992,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>117.47021484375</v>
+      </c>
+      <c r="H2">
+        <v>64.39990234375</v>
+      </c>
+      <c r="I2">
+        <v>53.0703125</v>
+      </c>
+      <c r="J2">
+        <v>173.93017578125</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>112.919921875</v>
-      </c>
-      <c r="H2">
-        <v>97.919921875</v>
-      </c>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1003,18 +1048,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>97.919921875</v>
+        <v>64.39990234375</v>
       </c>
       <c r="H3">
-        <v>112.919921875</v>
+        <v>117.47021484375</v>
       </c>
       <c r="I3">
-        <v>-15</v>
+        <v>-53.0703125</v>
       </c>
       <c r="J3">
+        <v>113.35986328125</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -1025,13 +1073,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,45 +1110,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>120.8701171875</v>
+      </c>
+      <c r="H2">
+        <v>113.509765625</v>
+      </c>
+      <c r="I2">
+        <v>7.3603515625</v>
+      </c>
+      <c r="J2">
+        <v>180.35009765625</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>118.9599609375</v>
-      </c>
-      <c r="H2">
-        <v>111.52001953125</v>
-      </c>
-      <c r="I2">
-        <v>7.43994140625</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1112,18 +1166,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>111.52001953125</v>
+        <v>113.509765625</v>
       </c>
       <c r="H3">
-        <v>118.9599609375</v>
+        <v>120.8701171875</v>
       </c>
       <c r="I3">
-        <v>-7.43994140625</v>
+        <v>-7.3603515625</v>
       </c>
       <c r="J3">
+        <v>169.269775390625</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -1134,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,45 +1228,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>133.4404296875</v>
+      </c>
+      <c r="H2">
+        <v>120.009765625</v>
+      </c>
+      <c r="I2">
+        <v>13.4306640625</v>
+      </c>
+      <c r="J2">
+        <v>197.00048828125</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>139.3203125</v>
-      </c>
-      <c r="H2">
-        <v>127.1201171875</v>
-      </c>
-      <c r="I2">
-        <v>12.2001953125</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1221,18 +1284,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>127.1201171875</v>
+        <v>120.009765625</v>
       </c>
       <c r="H3">
-        <v>139.3203125</v>
+        <v>133.4404296875</v>
       </c>
       <c r="I3">
-        <v>-12.2001953125</v>
+        <v>-13.4306640625</v>
       </c>
       <c r="J3">
+        <v>189.669921875</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>
@@ -1243,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,45 +1346,51 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>117.509765625</v>
+      </c>
+      <c r="H2">
+        <v>117.10986328125</v>
+      </c>
+      <c r="I2">
+        <v>0.39990234375</v>
+      </c>
+      <c r="J2">
+        <v>184.4697265625</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>133.919921875</v>
-      </c>
-      <c r="H2">
-        <v>131.6201171875</v>
-      </c>
-      <c r="I2">
-        <v>2.2998046875</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1330,18 +1402,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>131.6201171875</v>
+        <v>117.10986328125</v>
       </c>
       <c r="H3">
-        <v>133.919921875</v>
+        <v>117.509765625</v>
       </c>
       <c r="I3">
-        <v>-2.2998046875</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="J3">
+        <v>182.919921875</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
     </row>

--- a/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
@@ -553,7 +553,7 @@
         <v>49</v>
       </c>
       <c r="J2">
-        <v>161.3701171875</v>
+        <v>116.91015625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>-49</v>
       </c>
       <c r="J3">
-        <v>137.2099609375</v>
+        <v>67.91015625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -671,7 +671,7 @@
         <v>8.849609375</v>
       </c>
       <c r="J2">
-        <v>185.9697265625</v>
+        <v>114.759765625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-8.849609375</v>
       </c>
       <c r="J3">
-        <v>172.51025390625</v>
+        <v>105.91015625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>41.599609375</v>
       </c>
       <c r="J2">
-        <v>175.099853515625</v>
+        <v>121.009765625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>-41.599609375</v>
       </c>
       <c r="J3">
-        <v>129.51025390625</v>
+        <v>79.41015625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>24.82958984375</v>
       </c>
       <c r="J2">
-        <v>198.90966796875</v>
+        <v>133.0498046875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>-24.82958984375</v>
       </c>
       <c r="J3">
-        <v>148.960205078125</v>
+        <v>108.22021484375</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>53.0703125</v>
       </c>
       <c r="J2">
-        <v>173.93017578125</v>
+        <v>117.47021484375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>-53.0703125</v>
       </c>
       <c r="J3">
-        <v>113.35986328125</v>
+        <v>64.39990234375</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>7.3603515625</v>
       </c>
       <c r="J2">
-        <v>180.35009765625</v>
+        <v>120.8701171875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>-7.3603515625</v>
       </c>
       <c r="J3">
-        <v>169.269775390625</v>
+        <v>113.509765625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>13.4306640625</v>
       </c>
       <c r="J2">
-        <v>197.00048828125</v>
+        <v>133.4404296875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>-13.4306640625</v>
       </c>
       <c r="J3">
-        <v>189.669921875</v>
+        <v>120.009765625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1379,7 +1379,7 @@
         <v>0.39990234375</v>
       </c>
       <c r="J2">
-        <v>184.4697265625</v>
+        <v>117.509765625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>-0.39990234375</v>
       </c>
       <c r="J3">
-        <v>182.919921875</v>
+        <v>117.10986328125</v>
       </c>
       <c r="K3">
         <v>2</v>

--- a/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Jogo A" sheetId="1" r:id="rId1"/>
-    <sheet name="Jogo B" sheetId="2" r:id="rId2"/>
-    <sheet name="Jogo C" sheetId="3" r:id="rId3"/>
-    <sheet name="Jogo D" sheetId="4" r:id="rId4"/>
-    <sheet name="Jogo E" sheetId="5" r:id="rId5"/>
-    <sheet name="Jogo F" sheetId="6" r:id="rId6"/>
-    <sheet name="Jogo G" sheetId="7" r:id="rId7"/>
-    <sheet name="Jogo H" sheetId="8" r:id="rId8"/>
+    <sheet name="Jogo 1 (JG1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Jogo 2 (JG2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Jogo 3 (JG3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Jogo 4 (JG4)" sheetId="4" r:id="rId4"/>
+    <sheet name="Jogo 5 (JG5)" sheetId="5" r:id="rId5"/>
+    <sheet name="Jogo 6 (JG6)" sheetId="6" r:id="rId6"/>
+    <sheet name="Jogo 7 (JG7)" sheetId="7" r:id="rId7"/>
+    <sheet name="Jogo 8 (JG8)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -56,7 +56,7 @@
     <t>Posição</t>
   </si>
   <si>
-    <t>Jogo A</t>
+    <t>Jogo 1 (JG1)</t>
   </si>
   <si>
     <t>Gig@ntte</t>
@@ -65,7 +65,7 @@
     <t>Gremiomaniasm</t>
   </si>
   <si>
-    <t>Jogo B</t>
+    <t>Jogo 2 (JG2)</t>
   </si>
   <si>
     <t>KING LEONN</t>
@@ -74,7 +74,7 @@
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
-    <t>Jogo C</t>
+    <t>Jogo 3 (JG3)</t>
   </si>
   <si>
     <t>Laranjja Mecannica</t>
@@ -83,7 +83,7 @@
     <t>Tatols Beants F.C</t>
   </si>
   <si>
-    <t>Jogo D</t>
+    <t>Jogo 4 (JG4)</t>
   </si>
   <si>
     <t>Grêmio imortal 37</t>
@@ -92,7 +92,7 @@
     <t>Dom Camillo68</t>
   </si>
   <si>
-    <t>Jogo E</t>
+    <t>Jogo 5 (JG5)</t>
   </si>
   <si>
     <t>MauHumor F.C.</t>
@@ -101,7 +101,7 @@
     <t>F.C. Rei Das Copas</t>
   </si>
   <si>
-    <t>Jogo F</t>
+    <t>Jogo 6 (JG6)</t>
   </si>
   <si>
     <t>TEAM LOPES 99</t>
@@ -110,7 +110,7 @@
     <t>HS SPORTS F.C</t>
   </si>
   <si>
-    <t>Jogo G</t>
+    <t>Jogo 7 (JG7)</t>
   </si>
   <si>
     <t>Tabajara de Inhaua FC2</t>
@@ -119,7 +119,7 @@
     <t>FC Los Castilho</t>
   </si>
   <si>
-    <t>Jogo H</t>
+    <t>Jogo 8 (JG8)</t>
   </si>
   <si>
     <t>E.C. Bororé</t>

--- a/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/classificacao_por_jogo_oitavas_sula.xlsx
@@ -122,10 +122,10 @@
     <t>Jogo 8 (JG8)</t>
   </si>
   <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
     <t>E.C. Bororé</t>
-  </si>
-  <si>
-    <t>lsauer fc</t>
   </si>
 </sst>
 </file>
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>116.91015625</v>
+        <v>189.2099609375</v>
       </c>
       <c r="H2">
-        <v>67.91015625</v>
+        <v>116.110107421875</v>
       </c>
       <c r="I2">
-        <v>49</v>
+        <v>73.099853515625</v>
       </c>
       <c r="J2">
-        <v>116.91015625</v>
+        <v>189.2099609375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -576,19 +576,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>67.91015625</v>
+        <v>116.110107421875</v>
       </c>
       <c r="H3">
-        <v>116.91015625</v>
+        <v>189.2099609375</v>
       </c>
       <c r="I3">
-        <v>-49</v>
+        <v>-73.099853515625</v>
       </c>
       <c r="J3">
-        <v>67.91015625</v>
+        <v>116.110107421875</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>114.759765625</v>
+        <v>174.65966796875</v>
       </c>
       <c r="H2">
-        <v>105.91015625</v>
+        <v>172.41015625</v>
       </c>
       <c r="I2">
-        <v>8.849609375</v>
+        <v>2.24951171875</v>
       </c>
       <c r="J2">
-        <v>114.759765625</v>
+        <v>174.65966796875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>105.91015625</v>
+        <v>172.41015625</v>
       </c>
       <c r="H3">
-        <v>114.759765625</v>
+        <v>174.65966796875</v>
       </c>
       <c r="I3">
-        <v>-8.849609375</v>
+        <v>-2.24951171875</v>
       </c>
       <c r="J3">
-        <v>105.91015625</v>
+        <v>172.41015625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>121.009765625</v>
+        <v>175.009765625</v>
       </c>
       <c r="H2">
-        <v>79.41015625</v>
+        <v>143.8603515625</v>
       </c>
       <c r="I2">
-        <v>41.599609375</v>
+        <v>31.1494140625</v>
       </c>
       <c r="J2">
-        <v>121.009765625</v>
+        <v>175.009765625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -815,16 +815,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.41015625</v>
+        <v>143.8603515625</v>
       </c>
       <c r="H3">
-        <v>121.009765625</v>
+        <v>175.009765625</v>
       </c>
       <c r="I3">
-        <v>-41.599609375</v>
+        <v>-31.1494140625</v>
       </c>
       <c r="J3">
-        <v>79.41015625</v>
+        <v>143.8603515625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -886,10 +886,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>133.0498046875</v>
+        <v>213.94970703125</v>
       </c>
       <c r="H2">
-        <v>108.22021484375</v>
+        <v>186.52001953125</v>
       </c>
       <c r="I2">
-        <v>24.82958984375</v>
+        <v>27.4296875</v>
       </c>
       <c r="J2">
-        <v>133.0498046875</v>
+        <v>213.94970703125</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>108.22021484375</v>
+        <v>186.52001953125</v>
       </c>
       <c r="H3">
-        <v>133.0498046875</v>
+        <v>213.94970703125</v>
       </c>
       <c r="I3">
-        <v>-24.82958984375</v>
+        <v>-27.4296875</v>
       </c>
       <c r="J3">
-        <v>108.22021484375</v>
+        <v>186.52001953125</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1004,10 +1004,10 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>117.47021484375</v>
+        <v>190.17041015625</v>
       </c>
       <c r="H2">
-        <v>64.39990234375</v>
+        <v>134.10009765625</v>
       </c>
       <c r="I2">
-        <v>53.0703125</v>
+        <v>56.0703125</v>
       </c>
       <c r="J2">
-        <v>117.47021484375</v>
+        <v>190.17041015625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>64.39990234375</v>
+        <v>134.10009765625</v>
       </c>
       <c r="H3">
-        <v>117.47021484375</v>
+        <v>190.17041015625</v>
       </c>
       <c r="I3">
-        <v>-53.0703125</v>
+        <v>-56.0703125</v>
       </c>
       <c r="J3">
-        <v>64.39990234375</v>
+        <v>134.10009765625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1122,10 +1122,10 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>120.8701171875</v>
+        <v>196.669921875</v>
       </c>
       <c r="H2">
-        <v>113.509765625</v>
+        <v>179.90966796875</v>
       </c>
       <c r="I2">
-        <v>7.3603515625</v>
+        <v>16.76025390625</v>
       </c>
       <c r="J2">
-        <v>120.8701171875</v>
+        <v>196.669921875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1166,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>113.509765625</v>
+        <v>179.90966796875</v>
       </c>
       <c r="H3">
-        <v>120.8701171875</v>
+        <v>196.669921875</v>
       </c>
       <c r="I3">
-        <v>-7.3603515625</v>
+        <v>-16.76025390625</v>
       </c>
       <c r="J3">
-        <v>113.509765625</v>
+        <v>179.90966796875</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1249,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>133.4404296875</v>
+        <v>196.9404296875</v>
       </c>
       <c r="H2">
-        <v>120.009765625</v>
+        <v>190.509765625</v>
       </c>
       <c r="I2">
-        <v>13.4306640625</v>
+        <v>6.4306640625</v>
       </c>
       <c r="J2">
-        <v>133.4404296875</v>
+        <v>196.9404296875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1275,10 +1275,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.009765625</v>
+        <v>190.509765625</v>
       </c>
       <c r="H3">
-        <v>133.4404296875</v>
+        <v>196.9404296875</v>
       </c>
       <c r="I3">
-        <v>-13.4306640625</v>
+        <v>-6.4306640625</v>
       </c>
       <c r="J3">
-        <v>120.009765625</v>
+        <v>190.509765625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>117.509765625</v>
+        <v>190.2099609375</v>
       </c>
       <c r="H2">
-        <v>117.10986328125</v>
+        <v>186.4296875</v>
       </c>
       <c r="I2">
-        <v>0.39990234375</v>
+        <v>3.7802734375</v>
       </c>
       <c r="J2">
-        <v>117.509765625</v>
+        <v>190.2099609375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1393,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>117.10986328125</v>
+        <v>186.4296875</v>
       </c>
       <c r="H3">
-        <v>117.509765625</v>
+        <v>190.2099609375</v>
       </c>
       <c r="I3">
-        <v>-0.39990234375</v>
+        <v>-3.7802734375</v>
       </c>
       <c r="J3">
-        <v>117.10986328125</v>
+        <v>186.4296875</v>
       </c>
       <c r="K3">
         <v>2</v>
